--- a/result/interactions_download/B_ALL_precog.xlsx
+++ b/result/interactions_download/B_ALL_precog.xlsx
@@ -1896,85 +1896,85 @@
     <t xml:space="preserve">FAM57B</t>
   </si>
   <si>
+    <t xml:space="preserve">RNF149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRPK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBTB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCEB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKBP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP4K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDIT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNMT3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTHDF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBM4</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZBTB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTHDF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPZB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUP43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCEB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRKACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAP4K4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDIT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRYAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPR182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKBP5</t>
   </si>
 </sst>
 </file>
@@ -14666,6 +14666,256 @@
         <v>0</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>627</v>
+      </c>
+      <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>628</v>
+      </c>
+      <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+      <c r="E620"/>
+      <c r="F620"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>629</v>
+      </c>
+      <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+      <c r="E621"/>
+      <c r="F621"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>630</v>
+      </c>
+      <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>631</v>
+      </c>
+      <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>632</v>
+      </c>
+      <c r="B624"/>
+      <c r="C624"/>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>633</v>
+      </c>
+      <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>634</v>
+      </c>
+      <c r="B626"/>
+      <c r="C626"/>
+      <c r="D626"/>
+      <c r="E626"/>
+      <c r="F626"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>635</v>
+      </c>
+      <c r="B627"/>
+      <c r="C627"/>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>636</v>
+      </c>
+      <c r="B628"/>
+      <c r="C628"/>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>637</v>
+      </c>
+      <c r="B629"/>
+      <c r="C629"/>
+      <c r="D629"/>
+      <c r="E629"/>
+      <c r="F629"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>638</v>
+      </c>
+      <c r="B630"/>
+      <c r="C630"/>
+      <c r="D630"/>
+      <c r="E630"/>
+      <c r="F630"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>639</v>
+      </c>
+      <c r="B631"/>
+      <c r="C631"/>
+      <c r="D631"/>
+      <c r="E631"/>
+      <c r="F631"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>640</v>
+      </c>
+      <c r="B632"/>
+      <c r="C632"/>
+      <c r="D632"/>
+      <c r="E632"/>
+      <c r="F632"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>641</v>
+      </c>
+      <c r="B633"/>
+      <c r="C633"/>
+      <c r="D633"/>
+      <c r="E633"/>
+      <c r="F633"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>642</v>
+      </c>
+      <c r="B634"/>
+      <c r="C634"/>
+      <c r="D634"/>
+      <c r="E634"/>
+      <c r="F634"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>643</v>
+      </c>
+      <c r="B635"/>
+      <c r="C635"/>
+      <c r="D635"/>
+      <c r="E635"/>
+      <c r="F635"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>644</v>
+      </c>
+      <c r="B636"/>
+      <c r="C636"/>
+      <c r="D636"/>
+      <c r="E636"/>
+      <c r="F636"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>645</v>
+      </c>
+      <c r="B637"/>
+      <c r="C637"/>
+      <c r="D637"/>
+      <c r="E637"/>
+      <c r="F637"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>646</v>
+      </c>
+      <c r="B638"/>
+      <c r="C638"/>
+      <c r="D638"/>
+      <c r="E638"/>
+      <c r="F638"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>647</v>
+      </c>
+      <c r="B639"/>
+      <c r="C639"/>
+      <c r="D639"/>
+      <c r="E639"/>
+      <c r="F639"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>648</v>
+      </c>
+      <c r="B640"/>
+      <c r="C640"/>
+      <c r="D640"/>
+      <c r="E640"/>
+      <c r="F640"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>649</v>
+      </c>
+      <c r="B641"/>
+      <c r="C641"/>
+      <c r="D641"/>
+      <c r="E641"/>
+      <c r="F641"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>650</v>
+      </c>
+      <c r="B642"/>
+      <c r="C642"/>
+      <c r="D642"/>
+      <c r="E642"/>
+      <c r="F642"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>651</v>
+      </c>
+      <c r="B643"/>
+      <c r="C643"/>
+      <c r="D643"/>
+      <c r="E643"/>
+      <c r="F643"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14682,10 +14932,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="B1" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2">
@@ -14709,7 +14959,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5">
@@ -14778,7 +15028,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -14845,7 +15095,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22">
@@ -14869,7 +15119,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25">
@@ -14882,7 +15132,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -14890,7 +15140,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -14922,7 +15172,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -14965,7 +15215,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37">
@@ -14973,7 +15223,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38">
@@ -15013,12 +15263,12 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -15050,7 +15300,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -15058,7 +15308,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -15077,7 +15327,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51">
@@ -15090,7 +15340,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -15130,7 +15380,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -15154,7 +15404,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -15170,7 +15420,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -15181,7 +15431,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64">
@@ -15189,12 +15439,12 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -15205,7 +15455,7 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67">
@@ -15221,7 +15471,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
@@ -15253,7 +15503,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73">
@@ -15261,7 +15511,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74">
@@ -15290,7 +15540,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -15306,7 +15556,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -15322,7 +15572,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -15346,7 +15596,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -15389,7 +15639,7 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90">
@@ -15405,7 +15655,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="92">
@@ -15442,7 +15692,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -15466,7 +15716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -15474,7 +15724,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -15482,7 +15732,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -15498,7 +15748,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -15509,7 +15759,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105">
@@ -15541,7 +15791,7 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109">
@@ -15549,7 +15799,7 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110">
@@ -15578,7 +15828,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -15613,7 +15863,7 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="118">
@@ -15642,7 +15892,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
@@ -15653,7 +15903,7 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="123">
@@ -15685,7 +15935,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127">
@@ -15709,7 +15959,7 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130">
@@ -15757,7 +16007,7 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136">
@@ -15789,7 +16039,7 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140">
@@ -15805,7 +16055,7 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142">
@@ -15821,7 +16071,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="144">
@@ -15837,7 +16087,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146">
@@ -15853,12 +16103,12 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
@@ -15869,12 +16119,12 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -15885,7 +16135,7 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152">
@@ -15949,12 +16199,12 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B160" t="s">
         <v>21</v>
@@ -15989,7 +16239,7 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="165">
@@ -16013,7 +16263,7 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="168">
@@ -16021,7 +16271,7 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="169">
@@ -16058,7 +16308,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -16109,7 +16359,7 @@
         <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="180">
@@ -16133,7 +16383,7 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="183">
@@ -16181,7 +16431,7 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="189">
@@ -16194,7 +16444,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="B190" t="s">
         <v>24</v>
@@ -16221,7 +16471,7 @@
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194">
@@ -16261,7 +16511,7 @@
         <v>25</v>
       </c>
       <c r="B198" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199">
@@ -16269,7 +16519,7 @@
         <v>25</v>
       </c>
       <c r="B199" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="200">
@@ -16277,7 +16527,7 @@
         <v>25</v>
       </c>
       <c r="B200" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201">
@@ -16306,7 +16556,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B204" t="s">
         <v>26</v>
@@ -16322,7 +16572,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B206" t="s">
         <v>26</v>
@@ -16357,7 +16607,7 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211">
@@ -16365,7 +16615,7 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="212">
@@ -16402,7 +16652,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
@@ -16410,7 +16660,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B217" t="s">
         <v>27</v>
@@ -16434,7 +16684,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B220" t="s">
         <v>28</v>
@@ -16466,7 +16716,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B224" t="s">
         <v>28</v>
@@ -16477,12 +16727,12 @@
         <v>28</v>
       </c>
       <c r="B225" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B226" t="s">
         <v>28</v>
@@ -16546,7 +16796,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B234" t="s">
         <v>29</v>
@@ -16562,7 +16812,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B236" t="s">
         <v>30</v>
@@ -16578,7 +16828,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B238" t="s">
         <v>30</v>
@@ -16602,7 +16852,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B241" t="s">
         <v>32</v>
@@ -16610,7 +16860,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B242" t="s">
         <v>32</v>
@@ -16642,7 +16892,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B246" t="s">
         <v>33</v>
@@ -16677,12 +16927,12 @@
         <v>33</v>
       </c>
       <c r="B250" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B251" t="s">
         <v>33</v>
@@ -16693,12 +16943,12 @@
         <v>33</v>
       </c>
       <c r="B252" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B253" t="s">
         <v>33</v>
@@ -16781,7 +17031,7 @@
         <v>35</v>
       </c>
       <c r="B263" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="264">
@@ -16826,7 +17076,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B269" t="s">
         <v>36</v>
@@ -16845,7 +17095,7 @@
         <v>36</v>
       </c>
       <c r="B271" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="272">
@@ -16858,7 +17108,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B273" t="s">
         <v>36</v>
@@ -16885,7 +17135,7 @@
         <v>37</v>
       </c>
       <c r="B276" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277">
@@ -16893,7 +17143,7 @@
         <v>37</v>
       </c>
       <c r="B277" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278">
@@ -16954,7 +17204,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B285" t="s">
         <v>38</v>
@@ -16965,12 +17215,12 @@
         <v>38</v>
       </c>
       <c r="B286" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B287" t="s">
         <v>38</v>
@@ -17021,7 +17271,7 @@
         <v>40</v>
       </c>
       <c r="B293" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="294">
@@ -17029,7 +17279,7 @@
         <v>40</v>
       </c>
       <c r="B294" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="295">
@@ -17050,7 +17300,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B297" t="s">
         <v>40</v>
@@ -17138,7 +17388,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B308" t="s">
         <v>43</v>
@@ -17146,7 +17396,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B309" t="s">
         <v>43</v>
@@ -17218,7 +17468,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B318" t="s">
         <v>45</v>
@@ -17277,7 +17527,7 @@
         <v>46</v>
       </c>
       <c r="B325" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="326">
@@ -17293,7 +17543,7 @@
         <v>47</v>
       </c>
       <c r="B327" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="328">
@@ -17338,7 +17588,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B333" t="s">
         <v>49</v>
@@ -17354,7 +17604,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B335" t="s">
         <v>49</v>
@@ -17365,7 +17615,7 @@
         <v>49</v>
       </c>
       <c r="B336" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="337">
@@ -17405,7 +17655,7 @@
         <v>50</v>
       </c>
       <c r="B341" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="342">
@@ -17429,7 +17679,7 @@
         <v>50</v>
       </c>
       <c r="B344" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="345">
@@ -17437,7 +17687,7 @@
         <v>50</v>
       </c>
       <c r="B345" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="346">
@@ -17469,7 +17719,7 @@
         <v>51</v>
       </c>
       <c r="B349" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="350">
@@ -17485,7 +17735,7 @@
         <v>51</v>
       </c>
       <c r="B351" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="352">
@@ -17493,12 +17743,12 @@
         <v>51</v>
       </c>
       <c r="B352" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B353" t="s">
         <v>51</v>
@@ -17538,7 +17788,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B358" t="s">
         <v>53</v>
@@ -17562,7 +17812,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B361" t="s">
         <v>53</v>
@@ -17605,7 +17855,7 @@
         <v>54</v>
       </c>
       <c r="B366" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="367">
@@ -17613,7 +17863,7 @@
         <v>54</v>
       </c>
       <c r="B367" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="368">
@@ -17650,7 +17900,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B372" t="s">
         <v>55</v>
@@ -17682,7 +17932,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B376" t="s">
         <v>55</v>
@@ -17717,7 +17967,7 @@
         <v>56</v>
       </c>
       <c r="B380" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="381">
@@ -17749,7 +17999,7 @@
         <v>56</v>
       </c>
       <c r="B384" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="385">
@@ -17757,7 +18007,7 @@
         <v>56</v>
       </c>
       <c r="B385" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="386">
@@ -17770,7 +18020,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B387" t="s">
         <v>56</v>
@@ -17781,7 +18031,7 @@
         <v>56</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="389">
@@ -17794,7 +18044,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B390" t="s">
         <v>57</v>
@@ -17818,7 +18068,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B393" t="s">
         <v>58</v>
@@ -17826,7 +18076,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B394" t="s">
         <v>58</v>
@@ -17842,7 +18092,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B396" t="s">
         <v>58</v>
@@ -17898,7 +18148,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B403" t="s">
         <v>59</v>
@@ -17925,7 +18175,7 @@
         <v>60</v>
       </c>
       <c r="B406" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="407">
@@ -17933,7 +18183,7 @@
         <v>60</v>
       </c>
       <c r="B407" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408">
@@ -17941,7 +18191,7 @@
         <v>60</v>
       </c>
       <c r="B408" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="409">
@@ -17973,7 +18223,7 @@
         <v>61</v>
       </c>
       <c r="B412" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="413">
@@ -18002,7 +18252,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B416" t="s">
         <v>61</v>
@@ -18045,7 +18295,7 @@
         <v>62</v>
       </c>
       <c r="B421" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="422">
@@ -18053,7 +18303,7 @@
         <v>62</v>
       </c>
       <c r="B422" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="423">
@@ -18061,7 +18311,7 @@
         <v>62</v>
       </c>
       <c r="B423" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="424">
@@ -18090,7 +18340,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="B427" t="s">
         <v>64</v>
@@ -18154,7 +18404,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B435" t="s">
         <v>65</v>
@@ -18181,7 +18431,7 @@
         <v>66</v>
       </c>
       <c r="B438" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="439">
@@ -18237,7 +18487,7 @@
         <v>67</v>
       </c>
       <c r="B445" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="446">
@@ -18261,7 +18511,7 @@
         <v>67</v>
       </c>
       <c r="B448" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="449">
@@ -18301,7 +18551,7 @@
         <v>69</v>
       </c>
       <c r="B453" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="454">
@@ -18309,7 +18559,7 @@
         <v>69</v>
       </c>
       <c r="B454" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="455">
@@ -18317,7 +18567,7 @@
         <v>69</v>
       </c>
       <c r="B455" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="456">
@@ -18341,7 +18591,7 @@
         <v>69</v>
       </c>
       <c r="B458" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="459">
@@ -18357,7 +18607,7 @@
         <v>70</v>
       </c>
       <c r="B460" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="461">
@@ -18365,7 +18615,7 @@
         <v>70</v>
       </c>
       <c r="B461" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="462">
@@ -18381,12 +18631,12 @@
         <v>70</v>
       </c>
       <c r="B463" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B464" t="s">
         <v>71</v>
@@ -18450,7 +18700,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B472" t="s">
         <v>72</v>
@@ -18458,7 +18708,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B473" t="s">
         <v>72</v>
@@ -18501,7 +18751,7 @@
         <v>73</v>
       </c>
       <c r="B478" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="479">
@@ -18562,7 +18812,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B486" t="s">
         <v>75</v>
@@ -18573,7 +18823,7 @@
         <v>75</v>
       </c>
       <c r="B487" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="488">
@@ -18621,7 +18871,7 @@
         <v>76</v>
       </c>
       <c r="B493" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="494">
@@ -18669,7 +18919,7 @@
         <v>77</v>
       </c>
       <c r="B499" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="500">
@@ -18701,7 +18951,7 @@
         <v>78</v>
       </c>
       <c r="B503" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="504">
@@ -18733,7 +18983,7 @@
         <v>79</v>
       </c>
       <c r="B507" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="508">
@@ -18762,7 +19012,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B511" t="s">
         <v>80</v>
@@ -18770,7 +19020,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B512" t="s">
         <v>80</v>
@@ -18818,7 +19068,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B518" t="s">
         <v>81</v>
@@ -18829,12 +19079,12 @@
         <v>82</v>
       </c>
       <c r="B519" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B520" t="s">
         <v>82</v>
@@ -18850,7 +19100,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B522" t="s">
         <v>83</v>
@@ -18874,7 +19124,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B525" t="s">
         <v>83</v>
@@ -18890,7 +19140,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B527" t="s">
         <v>83</v>
@@ -18909,7 +19159,7 @@
         <v>84</v>
       </c>
       <c r="B529" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="530">
@@ -18925,7 +19175,7 @@
         <v>84</v>
       </c>
       <c r="B531" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="532">
@@ -18949,7 +19199,7 @@
         <v>84</v>
       </c>
       <c r="B534" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="535">
@@ -18994,7 +19244,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B540" t="s">
         <v>85</v>
@@ -19037,7 +19287,7 @@
         <v>86</v>
       </c>
       <c r="B545" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="546">
@@ -19045,7 +19295,7 @@
         <v>86</v>
       </c>
       <c r="B546" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="547">
@@ -19053,7 +19303,7 @@
         <v>87</v>
       </c>
       <c r="B547" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="548">
@@ -19061,7 +19311,7 @@
         <v>87</v>
       </c>
       <c r="B548" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="549">
@@ -19077,7 +19327,7 @@
         <v>87</v>
       </c>
       <c r="B550" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="551">
@@ -19101,7 +19351,7 @@
         <v>87</v>
       </c>
       <c r="B553" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="554">
@@ -19117,7 +19367,7 @@
         <v>88</v>
       </c>
       <c r="B555" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="556">
@@ -19170,7 +19420,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B562" t="s">
         <v>89</v>
@@ -19181,7 +19431,7 @@
         <v>89</v>
       </c>
       <c r="B563" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="564">
@@ -19189,12 +19439,12 @@
         <v>89</v>
       </c>
       <c r="B564" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B565" t="s">
         <v>90</v>
@@ -19229,7 +19479,7 @@
         <v>91</v>
       </c>
       <c r="B569" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="570">
@@ -19258,7 +19508,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B573" t="s">
         <v>93</v>
@@ -19266,7 +19516,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B574" t="s">
         <v>93</v>
@@ -19277,12 +19527,12 @@
         <v>93</v>
       </c>
       <c r="B575" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B576" t="s">
         <v>93</v>
@@ -19293,7 +19543,7 @@
         <v>93</v>
       </c>
       <c r="B577" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="578">
@@ -19325,7 +19575,7 @@
         <v>94</v>
       </c>
       <c r="B581" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="582">
@@ -19338,7 +19588,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B583" t="s">
         <v>94</v>
@@ -19357,7 +19607,7 @@
         <v>94</v>
       </c>
       <c r="B585" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="586">
@@ -19373,7 +19623,7 @@
         <v>94</v>
       </c>
       <c r="B587" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="588">
@@ -19389,7 +19639,7 @@
         <v>95</v>
       </c>
       <c r="B589" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="590">
@@ -19397,7 +19647,7 @@
         <v>95</v>
       </c>
       <c r="B590" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="591">
@@ -19410,7 +19660,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B592" t="s">
         <v>97</v>
@@ -19434,7 +19684,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B595" t="s">
         <v>97</v>
@@ -19442,7 +19692,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B596" t="s">
         <v>97</v>
@@ -19450,7 +19700,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B597" t="s">
         <v>98</v>
@@ -19506,7 +19756,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B604" t="s">
         <v>99</v>
@@ -19517,7 +19767,7 @@
         <v>99</v>
       </c>
       <c r="B605" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="606">
@@ -19562,7 +19812,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B611" t="s">
         <v>103</v>
@@ -19570,7 +19820,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B612" t="s">
         <v>103</v>
@@ -19581,7 +19831,7 @@
         <v>103</v>
       </c>
       <c r="B613" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="614">
@@ -19589,7 +19839,7 @@
         <v>103</v>
       </c>
       <c r="B614" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="615">
@@ -19610,7 +19860,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B617" t="s">
         <v>104</v>
@@ -19645,7 +19895,7 @@
         <v>105</v>
       </c>
       <c r="B621" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="622">
@@ -19682,7 +19932,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B626" t="s">
         <v>107</v>
@@ -19706,7 +19956,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B629" t="s">
         <v>107</v>
@@ -19714,7 +19964,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B630" t="s">
         <v>107</v>
@@ -19733,7 +19983,7 @@
         <v>108</v>
       </c>
       <c r="B632" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="633">
@@ -19741,7 +19991,7 @@
         <v>108</v>
       </c>
       <c r="B633" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="634">
@@ -19813,7 +20063,7 @@
         <v>110</v>
       </c>
       <c r="B642" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="643">
@@ -19826,7 +20076,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B644" t="s">
         <v>110</v>
@@ -19842,7 +20092,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B646" t="s">
         <v>111</v>
@@ -19866,7 +20116,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B649" t="s">
         <v>111</v>
@@ -19877,7 +20127,7 @@
         <v>112</v>
       </c>
       <c r="B650" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="651">
@@ -19890,7 +20140,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B652" t="s">
         <v>112</v>
@@ -19901,7 +20151,7 @@
         <v>112</v>
       </c>
       <c r="B653" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="654">
@@ -19917,7 +20167,7 @@
         <v>113</v>
       </c>
       <c r="B655" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="656">
@@ -19941,7 +20191,7 @@
         <v>114</v>
       </c>
       <c r="B658" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="659">
@@ -19970,7 +20220,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B662" t="s">
         <v>114</v>
@@ -19981,7 +20231,7 @@
         <v>114</v>
       </c>
       <c r="B663" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="664">
@@ -19989,7 +20239,7 @@
         <v>115</v>
       </c>
       <c r="B664" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="665">
@@ -20005,7 +20255,7 @@
         <v>115</v>
       </c>
       <c r="B666" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="667">
@@ -20013,7 +20263,7 @@
         <v>115</v>
       </c>
       <c r="B667" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="668">
@@ -20045,7 +20295,7 @@
         <v>116</v>
       </c>
       <c r="B671" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="672">
@@ -20053,7 +20303,7 @@
         <v>117</v>
       </c>
       <c r="B672" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="673">
@@ -20090,7 +20340,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B677" t="s">
         <v>118</v>
@@ -20106,7 +20356,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B679" t="s">
         <v>120</v>
@@ -20165,7 +20415,7 @@
         <v>121</v>
       </c>
       <c r="B686" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="687">
@@ -20173,12 +20423,12 @@
         <v>121</v>
       </c>
       <c r="B687" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B688" t="s">
         <v>121</v>
@@ -20186,7 +20436,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B689" t="s">
         <v>122</v>
@@ -20210,7 +20460,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B692" t="s">
         <v>123</v>
@@ -20221,7 +20471,7 @@
         <v>124</v>
       </c>
       <c r="B693" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="694">
@@ -20245,12 +20495,12 @@
         <v>125</v>
       </c>
       <c r="B696" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B697" t="s">
         <v>125</v>
@@ -20274,7 +20524,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B700" t="s">
         <v>125</v>
@@ -20317,7 +20567,7 @@
         <v>127</v>
       </c>
       <c r="B705" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="706">
@@ -20330,7 +20580,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B707" t="s">
         <v>127</v>
@@ -20365,7 +20615,7 @@
         <v>128</v>
       </c>
       <c r="B711" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="712">
@@ -20378,7 +20628,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B713" t="s">
         <v>128</v>
@@ -20405,12 +20655,12 @@
         <v>129</v>
       </c>
       <c r="B716" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B717" t="s">
         <v>129</v>
@@ -20418,7 +20668,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B718" t="s">
         <v>129</v>
@@ -20442,7 +20692,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B721" t="s">
         <v>130</v>
@@ -20450,7 +20700,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B722" t="s">
         <v>130</v>
@@ -20474,7 +20724,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B725" t="s">
         <v>131</v>
@@ -20498,7 +20748,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B728" t="s">
         <v>131</v>
@@ -20570,7 +20820,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B737" t="s">
         <v>135</v>
@@ -20589,7 +20839,7 @@
         <v>136</v>
       </c>
       <c r="B739" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="740">
@@ -20645,7 +20895,7 @@
         <v>141</v>
       </c>
       <c r="B746" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="747">
@@ -20693,7 +20943,7 @@
         <v>143</v>
       </c>
       <c r="B752" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="753">
@@ -20746,7 +20996,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B759" t="s">
         <v>145</v>
@@ -20794,7 +21044,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B765" t="s">
         <v>147</v>
@@ -20802,7 +21052,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B766" t="s">
         <v>147</v>
@@ -20821,7 +21071,7 @@
         <v>149</v>
       </c>
       <c r="B768" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="769">
@@ -20842,7 +21092,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B771" t="s">
         <v>150</v>
@@ -20869,7 +21119,7 @@
         <v>151</v>
       </c>
       <c r="B774" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="775">
@@ -20906,7 +21156,7 @@
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B779" t="s">
         <v>154</v>
@@ -20938,7 +21188,7 @@
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B783" t="s">
         <v>154</v>
@@ -20981,7 +21231,7 @@
         <v>156</v>
       </c>
       <c r="B788" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="789">
@@ -20994,7 +21244,7 @@
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B790" t="s">
         <v>157</v>
@@ -21005,7 +21255,7 @@
         <v>157</v>
       </c>
       <c r="B791" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="792">
@@ -21045,7 +21295,7 @@
         <v>161</v>
       </c>
       <c r="B796" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="797">
@@ -21077,7 +21327,7 @@
         <v>162</v>
       </c>
       <c r="B800" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="801">
@@ -21101,7 +21351,7 @@
         <v>163</v>
       </c>
       <c r="B803" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="804">
@@ -21117,7 +21367,7 @@
         <v>163</v>
       </c>
       <c r="B805" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="806">
@@ -21218,7 +21468,7 @@
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B818" t="s">
         <v>169</v>
@@ -21234,7 +21484,7 @@
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B820" t="s">
         <v>169</v>
@@ -21242,7 +21492,7 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B821" t="s">
         <v>170</v>
@@ -21274,7 +21524,7 @@
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B825" t="s">
         <v>171</v>
@@ -21282,7 +21532,7 @@
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B826" t="s">
         <v>171</v>
@@ -21290,7 +21540,7 @@
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B827" t="s">
         <v>171</v>
@@ -21298,7 +21548,7 @@
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B828" t="s">
         <v>171</v>
@@ -21338,7 +21588,7 @@
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B833" t="s">
         <v>178</v>
@@ -21346,7 +21596,7 @@
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B834" t="s">
         <v>178</v>
@@ -21365,7 +21615,7 @@
         <v>179</v>
       </c>
       <c r="B836" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="837">
@@ -21389,7 +21639,7 @@
         <v>180</v>
       </c>
       <c r="B839" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="840">
@@ -21405,7 +21655,7 @@
         <v>181</v>
       </c>
       <c r="B841" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="842">
@@ -21429,7 +21679,7 @@
         <v>184</v>
       </c>
       <c r="B844" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="845">
@@ -21442,7 +21692,7 @@
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B846" t="s">
         <v>186</v>
@@ -21450,7 +21700,7 @@
     </row>
     <row r="847">
       <c r="A847" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B847" t="s">
         <v>188</v>
@@ -21466,7 +21716,7 @@
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B849" t="s">
         <v>189</v>
@@ -21474,7 +21724,7 @@
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B850" t="s">
         <v>190</v>
@@ -21501,7 +21751,7 @@
         <v>192</v>
       </c>
       <c r="B853" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="854">
@@ -21514,7 +21764,7 @@
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B855" t="s">
         <v>193</v>
@@ -21570,7 +21820,7 @@
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B862" t="s">
         <v>199</v>
@@ -21621,7 +21871,7 @@
         <v>201</v>
       </c>
       <c r="B868" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="869">
@@ -21661,7 +21911,7 @@
         <v>205</v>
       </c>
       <c r="B873" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="874">
@@ -21674,7 +21924,7 @@
     </row>
     <row r="875">
       <c r="A875" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B875" t="s">
         <v>205</v>
@@ -21693,7 +21943,7 @@
         <v>205</v>
       </c>
       <c r="B877" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="878">
@@ -21717,7 +21967,7 @@
         <v>206</v>
       </c>
       <c r="B880" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="881">
@@ -21725,7 +21975,7 @@
         <v>206</v>
       </c>
       <c r="B881" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="882">
@@ -21733,7 +21983,7 @@
         <v>206</v>
       </c>
       <c r="B882" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="883">
@@ -21741,7 +21991,7 @@
         <v>207</v>
       </c>
       <c r="B883" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="884">
@@ -21757,7 +22007,7 @@
         <v>208</v>
       </c>
       <c r="B885" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="886">
@@ -21789,12 +22039,12 @@
         <v>209</v>
       </c>
       <c r="B889" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B890" t="s">
         <v>209</v>
@@ -21813,7 +22063,7 @@
         <v>211</v>
       </c>
       <c r="B892" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="893">
@@ -21821,7 +22071,7 @@
         <v>211</v>
       </c>
       <c r="B893" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="894">
@@ -21845,7 +22095,7 @@
         <v>212</v>
       </c>
       <c r="B896" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="897">
@@ -21885,7 +22135,7 @@
         <v>216</v>
       </c>
       <c r="B901" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="902">
@@ -21906,7 +22156,7 @@
     </row>
     <row r="904">
       <c r="A904" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B904" t="s">
         <v>220</v>
@@ -21914,7 +22164,7 @@
     </row>
     <row r="905">
       <c r="A905" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B905" t="s">
         <v>220</v>
@@ -21922,7 +22172,7 @@
     </row>
     <row r="906">
       <c r="A906" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B906" t="s">
         <v>221</v>
@@ -21930,7 +22180,7 @@
     </row>
     <row r="907">
       <c r="A907" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B907" t="s">
         <v>223</v>
@@ -21949,7 +22199,7 @@
         <v>224</v>
       </c>
       <c r="B909" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="910">
@@ -21957,7 +22207,7 @@
         <v>224</v>
       </c>
       <c r="B910" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="911">
@@ -21994,7 +22244,7 @@
     </row>
     <row r="915">
       <c r="A915" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B915" t="s">
         <v>226</v>
@@ -22029,7 +22279,7 @@
         <v>227</v>
       </c>
       <c r="B919" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="920">
@@ -22037,7 +22287,7 @@
         <v>227</v>
       </c>
       <c r="B920" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="921">
@@ -22053,7 +22303,7 @@
         <v>228</v>
       </c>
       <c r="B922" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="923">
@@ -22061,7 +22311,7 @@
         <v>228</v>
       </c>
       <c r="B923" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="924">
@@ -22077,7 +22327,7 @@
         <v>232</v>
       </c>
       <c r="B925" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="926">
@@ -22085,12 +22335,12 @@
         <v>233</v>
       </c>
       <c r="B926" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B927" t="s">
         <v>234</v>
@@ -22109,12 +22359,12 @@
         <v>235</v>
       </c>
       <c r="B929" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B930" t="s">
         <v>236</v>
@@ -22125,7 +22375,7 @@
         <v>238</v>
       </c>
       <c r="B931" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="932">
@@ -22133,7 +22383,7 @@
         <v>240</v>
       </c>
       <c r="B932" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="933">
@@ -22149,7 +22399,7 @@
         <v>243</v>
       </c>
       <c r="B934" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="935">
@@ -22157,7 +22407,7 @@
         <v>243</v>
       </c>
       <c r="B935" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="936">
@@ -22173,7 +22423,7 @@
         <v>243</v>
       </c>
       <c r="B937" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="938">
@@ -22194,7 +22444,7 @@
     </row>
     <row r="940">
       <c r="A940" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B940" t="s">
         <v>245</v>
@@ -22205,7 +22455,7 @@
         <v>246</v>
       </c>
       <c r="B941" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="942">
@@ -22221,7 +22471,7 @@
         <v>248</v>
       </c>
       <c r="B943" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="944">
@@ -22253,7 +22503,7 @@
         <v>251</v>
       </c>
       <c r="B947" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="948">
@@ -22274,7 +22524,7 @@
     </row>
     <row r="950">
       <c r="A950" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B950" t="s">
         <v>253</v>
@@ -22293,7 +22543,7 @@
         <v>256</v>
       </c>
       <c r="B952" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="953">
@@ -22322,7 +22572,7 @@
     </row>
     <row r="956">
       <c r="A956" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B956" t="s">
         <v>260</v>
@@ -22338,7 +22588,7 @@
     </row>
     <row r="958">
       <c r="A958" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B958" t="s">
         <v>262</v>
@@ -22386,7 +22636,7 @@
     </row>
     <row r="964">
       <c r="A964" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B964" t="s">
         <v>265</v>
@@ -22397,7 +22647,7 @@
         <v>267</v>
       </c>
       <c r="B965" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="966">
@@ -22405,7 +22655,7 @@
         <v>268</v>
       </c>
       <c r="B966" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="967">
@@ -22418,7 +22668,7 @@
     </row>
     <row r="968">
       <c r="A968" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B968" t="s">
         <v>273</v>
@@ -22429,7 +22679,7 @@
         <v>273</v>
       </c>
       <c r="B969" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="970">
@@ -22442,7 +22692,7 @@
     </row>
     <row r="971">
       <c r="A971" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B971" t="s">
         <v>276</v>
@@ -22461,7 +22711,7 @@
         <v>277</v>
       </c>
       <c r="B973" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="974">
@@ -22509,7 +22759,7 @@
         <v>280</v>
       </c>
       <c r="B979" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="980">
@@ -22525,7 +22775,7 @@
         <v>286</v>
       </c>
       <c r="B981" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="982">
@@ -22541,7 +22791,7 @@
         <v>286</v>
       </c>
       <c r="B983" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="984">
@@ -22557,7 +22807,7 @@
         <v>288</v>
       </c>
       <c r="B985" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="986">
@@ -22565,7 +22815,7 @@
         <v>290</v>
       </c>
       <c r="B986" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="987">
@@ -22573,7 +22823,7 @@
         <v>290</v>
       </c>
       <c r="B987" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="988">
@@ -22586,7 +22836,7 @@
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B989" t="s">
         <v>294</v>
@@ -22602,7 +22852,7 @@
     </row>
     <row r="991">
       <c r="A991" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B991" t="s">
         <v>297</v>
@@ -22610,7 +22860,7 @@
     </row>
     <row r="992">
       <c r="A992" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B992" t="s">
         <v>297</v>
@@ -22677,7 +22927,7 @@
         <v>308</v>
       </c>
       <c r="B1000" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1001">
@@ -22690,7 +22940,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1002" t="s">
         <v>308</v>
@@ -22698,7 +22948,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B1003" t="s">
         <v>309</v>
@@ -22725,7 +22975,7 @@
         <v>316</v>
       </c>
       <c r="B1006" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1007">
@@ -22741,12 +22991,12 @@
         <v>319</v>
       </c>
       <c r="B1008" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B1009" t="s">
         <v>319</v>
@@ -22757,7 +23007,7 @@
         <v>322</v>
       </c>
       <c r="B1010" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1011">
@@ -22810,7 +23060,7 @@
     </row>
     <row r="1017">
       <c r="A1017" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B1017" t="s">
         <v>335</v>
@@ -22845,7 +23095,7 @@
         <v>340</v>
       </c>
       <c r="B1021" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1022">
@@ -22874,7 +23124,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B1025" t="s">
         <v>345</v>
@@ -22885,7 +23135,7 @@
         <v>346</v>
       </c>
       <c r="B1026" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1027">
@@ -22898,7 +23148,7 @@
     </row>
     <row r="1028">
       <c r="A1028" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1028" t="s">
         <v>349</v>
@@ -22949,7 +23199,7 @@
         <v>357</v>
       </c>
       <c r="B1034" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1035">
@@ -22962,7 +23212,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B1036" t="s">
         <v>360</v>
@@ -23010,7 +23260,7 @@
     </row>
     <row r="1042">
       <c r="A1042" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B1042" t="s">
         <v>371</v>
@@ -23021,7 +23271,7 @@
         <v>373</v>
       </c>
       <c r="B1043" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1044">
@@ -23050,7 +23300,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B1047" t="s">
         <v>383</v>
@@ -23061,7 +23311,7 @@
         <v>385</v>
       </c>
       <c r="B1048" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1049">
@@ -23074,7 +23324,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B1050" t="s">
         <v>389</v>
@@ -23093,7 +23343,7 @@
         <v>406</v>
       </c>
       <c r="B1052" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1053">
@@ -23109,12 +23359,12 @@
         <v>413</v>
       </c>
       <c r="B1054" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B1055" t="s">
         <v>420</v>
@@ -23122,7 +23372,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1056" t="s">
         <v>422</v>
@@ -23130,7 +23380,7 @@
     </row>
     <row r="1057">
       <c r="A1057" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B1057" t="s">
         <v>427</v>
@@ -23138,7 +23388,7 @@
     </row>
     <row r="1058">
       <c r="A1058" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1058" t="s">
         <v>428</v>
@@ -23173,7 +23423,7 @@
         <v>454</v>
       </c>
       <c r="B1062" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1063">
@@ -23194,7 +23444,7 @@
     </row>
     <row r="1065">
       <c r="A1065" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B1065" t="s">
         <v>461</v>
@@ -23202,7 +23452,7 @@
     </row>
     <row r="1066">
       <c r="A1066" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B1066" t="s">
         <v>464</v>
@@ -23210,7 +23460,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B1067" t="s">
         <v>465</v>
@@ -23242,7 +23492,7 @@
     </row>
     <row r="1071">
       <c r="A1071" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1071" t="s">
         <v>491</v>
@@ -23266,7 +23516,7 @@
     </row>
     <row r="1074">
       <c r="A1074" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1074" t="s">
         <v>514</v>
@@ -23277,7 +23527,7 @@
         <v>522</v>
       </c>
       <c r="B1075" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1076">
@@ -23293,7 +23543,7 @@
         <v>544</v>
       </c>
       <c r="B1077" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1078">
@@ -23301,7 +23551,7 @@
         <v>553</v>
       </c>
       <c r="B1078" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1079">
@@ -23309,12 +23559,12 @@
         <v>561</v>
       </c>
       <c r="B1079" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1080" t="s">
         <v>569</v>
@@ -23325,7 +23575,7 @@
         <v>575</v>
       </c>
       <c r="B1081" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1082">
@@ -23338,7 +23588,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B1083" t="s">
         <v>581</v>

--- a/result/interactions_download/B_ALL_precog.xlsx
+++ b/result/interactions_download/B_ALL_precog.xlsx
@@ -4571,7 +4571,7 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
         <v>-2.208</v>
